--- a/individual_results/avey/225.xlsx
+++ b/individual_results/avey/225.xlsx
@@ -582,7 +582,7 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M2" t="n">
         <v>0.3333333333333333</v>
@@ -726,7 +726,7 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="L4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="M4" t="n">
         <v>0.4</v>
@@ -797,7 +797,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5</v>
       </c>
       <c r="M5" t="n">
         <v>0.4545454545454545</v>
@@ -870,7 +870,7 @@
         <v>0.8262346571285599</v>
       </c>
       <c r="L6" t="n">
-        <v>0.41311732856428</v>
+        <v>0.8262346571285599</v>
       </c>
       <c r="M6" t="n">
         <v>0.8262346571285599</v>
@@ -943,7 +943,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="b">
         <v>1</v>
@@ -1158,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -1229,7 +1229,7 @@
         <v>0.5</v>
       </c>
       <c r="L11" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
         <v>1.5</v>
